--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>公司详细信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,22 @@
   </si>
   <si>
     <t>service_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -892,41 +908,57 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -941,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
     <sheet name="微页评论表" sheetId="2" r:id="rId2"/>
     <sheet name="收货地址" sheetId="3" r:id="rId3"/>
     <sheet name="标签" sheetId="4" r:id="rId4"/>
-    <sheet name="图片" sheetId="5" r:id="rId5"/>
+    <sheet name="图片表" sheetId="5" r:id="rId5"/>
+    <sheet name="用户表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>公司详细信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +342,38 @@
   </si>
   <si>
     <t>head_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ims_weiye_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1216,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1260,4 +1293,105 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>公司详细信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>自我介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniacid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1327,65 +1339,81 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>公司详细信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,14 @@
   </si>
   <si>
     <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为默认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1062,89 +1070,97 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1311,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView windowWidth="7425" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
@@ -14,406 +14,295 @@
     <sheet name="图片表" sheetId="5" r:id="rId5"/>
     <sheet name="用户表" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+  <si>
+    <t>ims_weiye_company_info</t>
+  </si>
   <si>
     <t>公司详细信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ims_weiye_company_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniacid</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>分公司id</t>
   </si>
   <si>
     <t>company_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>logo图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_img</t>
   </si>
   <si>
     <t>门店图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>call_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_xy</t>
+  </si>
+  <si>
+    <t>联系地址地图坐标（经纬度）</t>
+  </si>
+  <si>
+    <t>service_label</t>
+  </si>
+  <si>
+    <t>服务标签</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>详细介绍</t>
+  </si>
+  <si>
+    <t>details_title</t>
+  </si>
+  <si>
+    <t>详细介绍标题</t>
+  </si>
+  <si>
+    <t>creater</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>creater_openid</t>
+  </si>
+  <si>
+    <t>创建者openid</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>edit_time</t>
+  </si>
+  <si>
+    <t>最后编辑时间</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>可见状态 0为不现实，1为显示</t>
+  </si>
+  <si>
+    <t>ims_weiye_comment</t>
+  </si>
+  <si>
+    <t>微页评论表</t>
   </si>
   <si>
     <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>details_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细介绍标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_xy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可见状态 0为不现实，1为显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址地图坐标（经纬度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ims_weiye_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页评论表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司（店铺）id，不是branch_id</t>
+  </si>
+  <si>
+    <t>openid</t>
+  </si>
+  <si>
+    <t>微信用户openid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>微信用户名</t>
+  </si>
+  <si>
+    <t>head_img</t>
+  </si>
+  <si>
+    <t>微信头像</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>评论内容</t>
+  </si>
+  <si>
+    <t>comment_img</t>
+  </si>
+  <si>
+    <t>评论图片</t>
   </si>
   <si>
     <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分公司id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司（店铺）id，不是branch_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户openid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可见状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims_weiye_shipping_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default</t>
+  </si>
+  <si>
+    <t>1为默认</t>
   </si>
   <si>
     <t>caontact_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
   </si>
   <si>
     <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_type</t>
   </si>
   <si>
     <t>地址类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮政编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniacid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims_weiye_label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniacid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可见状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims_weiye_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id</t>
+  </si>
+  <si>
+    <t>微信用户id</t>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service_label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ims_weiye_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信openid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
   </si>
   <si>
     <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自我介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uniacid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1为默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -422,7 +311,6 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -431,20 +319,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -452,9 +676,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -462,18 +928,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -756,30 +1274,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -792,139 +1310,164 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -937,111 +1480,112 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1054,295 +1598,298 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1355,42 +1902,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1403,10 +1950,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1419,23 +1966,23 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7425" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>ims_weiye_company_info</t>
   </si>
@@ -171,6 +171,12 @@
     <t>评分</t>
   </si>
   <si>
+    <t>shenhe</t>
+  </si>
+  <si>
+    <t>审核状态</t>
+  </si>
+  <si>
     <t>可见状态</t>
   </si>
   <si>
@@ -241,6 +247,12 @@
   </si>
   <si>
     <t>标签名</t>
+  </si>
+  <si>
+    <t>editer</t>
+  </si>
+  <si>
+    <t>编辑者</t>
   </si>
   <si>
     <t>ims_weiye_img</t>
@@ -293,12 +305,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +335,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -330,6 +366,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -340,7 +415,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,81 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -435,11 +465,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,30 +478,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -483,19 +488,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,19 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,139 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,6 +679,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,54 +766,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -763,164 +779,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1450,10 +1455,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1552,10 +1557,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1595,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1614,26 +1627,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1641,31 +1654,31 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1673,23 +1686,23 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1705,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1718,24 +1731,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1759,23 +1772,47 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1838,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1828,7 +1865,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1836,15 +1873,15 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1860,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1912,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1886,10 +1923,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1913,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1921,7 +1958,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1929,23 +1966,23 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1958,10 +1995,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1977,7 +2014,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/weiye.xlsx
+++ b/weiye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="8925" windowHeight="6870" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="公司详细信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>ims_weiye_company_info</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>邮政编号</t>
+  </si>
+  <si>
+    <t>updatetime</t>
+  </si>
+  <si>
+    <t>最后修改时间</t>
   </si>
   <si>
     <t>ims_weiye_label</t>
@@ -305,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -335,6 +341,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -343,16 +439,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,97 +471,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -466,13 +479,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -488,175 +494,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,17 +688,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,40 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +740,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1463,7 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1581,10 +1587,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1715,9 +1721,17 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1745,10 +1759,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1772,7 +1786,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1793,10 +1807,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1838,10 +1852,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1865,7 +1879,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1873,15 +1887,15 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1912,7 +1926,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1923,10 +1937,10 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1950,7 +1964,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1958,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1966,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1979,10 +1993,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1995,10 +2009,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2">
